--- a/posesiones/1486021.xlsx
+++ b/posesiones/1486021.xlsx
@@ -1865,10 +1865,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2153,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2347,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2397,7 +2397,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R14">
         <v>30</v>
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R15">
         <v>14</v>
@@ -2503,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2647,7 +2647,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R19">
         <v>15</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2750,7 +2750,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R21">
         <v>16</v>
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2853,7 +2853,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R23">
         <v>4</v>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2953,7 +2953,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R25">
         <v>9</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3053,7 +3053,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R27">
         <v>20</v>
@@ -3106,7 +3106,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R28">
         <v>30</v>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3209,7 +3209,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R30">
         <v>21</v>
@@ -3259,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3406,7 +3406,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R34">
         <v>23</v>
@@ -3456,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3506,7 +3506,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R36">
         <v>20</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3700,7 +3700,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R40">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3900,7 +3900,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R44">
         <v>28</v>
@@ -3953,7 +3953,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R45">
         <v>5</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4053,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4247,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4294,7 +4294,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4344,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4532,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4579,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4629,7 +4629,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R59">
         <v>14</v>
@@ -4682,7 +4682,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R60">
         <v>18</v>
@@ -4732,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4782,7 +4782,7 @@
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R62">
         <v>8</v>
@@ -4835,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4885,7 +4885,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R64">
         <v>9</v>
@@ -4935,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4985,7 +4985,7 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R66">
         <v>17</v>
@@ -5035,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5085,7 +5085,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R68">
         <v>19</v>
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5185,7 +5185,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5232,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5279,7 +5279,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5376,7 +5376,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R74">
         <v>18</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5476,7 +5476,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R76">
         <v>24</v>
@@ -5529,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5579,7 +5579,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R78">
         <v>13</v>
@@ -5629,7 +5629,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5723,7 +5723,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5773,7 +5773,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R82">
         <v>20</v>
@@ -5823,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5870,7 +5870,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5917,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5967,7 +5967,7 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R86">
         <v>17</v>
@@ -6017,7 +6017,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6064,7 +6064,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6111,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6161,7 +6161,7 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R90">
         <v>18</v>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6261,7 +6261,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R92">
         <v>24</v>
@@ -6314,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6361,7 +6361,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6408,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6502,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6549,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6599,7 +6599,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R99">
         <v>11</v>
@@ -6649,7 +6649,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6696,7 +6696,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6746,7 +6746,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R102">
         <v>25</v>
@@ -6796,7 +6796,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6846,7 +6846,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R104">
         <v>6</v>
@@ -6896,7 +6896,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6943,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7037,7 +7037,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7087,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R109">
         <v>42</v>
@@ -7140,7 +7140,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7190,7 +7190,7 @@
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R111">
         <v>4</v>
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7287,7 +7287,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7334,7 +7334,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7384,7 +7384,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R115">
         <v>14</v>
@@ -7437,7 +7437,7 @@
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R116">
         <v>22</v>
@@ -7490,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7540,7 +7540,7 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R118">
         <v>13</v>
@@ -7590,7 +7590,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7640,7 +7640,7 @@
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R120">
         <v>6</v>
@@ -7696,7 +7696,7 @@
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R121">
         <v>1</v>
@@ -7740,10 +7740,10 @@
         <v>1</v>
       </c>
       <c r="P122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q122">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7784,10 +7784,10 @@
         <v>1</v>
       </c>
       <c r="P123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q123">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7837,7 +7837,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R124">
         <v>11</v>
@@ -7887,7 +7887,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7937,7 +7937,7 @@
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R126">
         <v>23</v>
@@ -7990,7 +7990,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8037,7 +8037,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8084,7 +8084,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8131,7 +8131,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8178,7 +8178,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8228,7 +8228,7 @@
         <v>1</v>
       </c>
       <c r="Q132">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R132">
         <v>14</v>
@@ -8281,7 +8281,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8375,7 +8375,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8422,7 +8422,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8469,7 +8469,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8519,7 +8519,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R138">
         <v>15</v>
@@ -8569,7 +8569,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8619,7 +8619,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8669,7 +8669,7 @@
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R141">
         <v>24</v>
@@ -8722,7 +8722,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R142">
         <v>14</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8872,7 +8872,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8922,7 +8922,7 @@
         <v>1</v>
       </c>
       <c r="Q146">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R146">
         <v>23</v>
@@ -8972,7 +8972,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9019,7 +9019,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9066,7 +9066,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9113,7 +9113,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9157,7 +9157,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9207,7 +9207,7 @@
         <v>1</v>
       </c>
       <c r="Q152">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R152">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9304,7 +9304,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9351,7 +9351,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9448,7 +9448,7 @@
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R157">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9551,7 +9551,7 @@
         <v>1</v>
       </c>
       <c r="Q159">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R159">
         <v>14</v>
@@ -9601,7 +9601,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9651,7 +9651,7 @@
         <v>1</v>
       </c>
       <c r="Q161">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R161">
         <v>15</v>
@@ -9704,7 +9704,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9754,7 +9754,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R163">
         <v>13</v>
@@ -9804,7 +9804,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9854,7 +9854,7 @@
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R165">
         <v>26</v>
@@ -9907,7 +9907,7 @@
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R166">
         <v>12</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10007,7 +10007,7 @@
         <v>1</v>
       </c>
       <c r="Q168">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R168">
         <v>19</v>
@@ -10060,7 +10060,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10107,7 +10107,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10201,7 +10201,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10248,7 +10248,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10295,7 +10295,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10342,7 +10342,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10389,7 +10389,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10483,7 +10483,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10530,7 +10530,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10580,7 +10580,7 @@
         <v>1</v>
       </c>
       <c r="Q180">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R180">
         <v>14</v>
@@ -10633,7 +10633,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10727,7 +10727,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10774,7 +10774,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10821,7 +10821,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10868,7 +10868,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10918,7 +10918,7 @@
         <v>1</v>
       </c>
       <c r="Q187">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R187">
         <v>21</v>
@@ -10968,7 +10968,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11012,7 +11012,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11062,7 +11062,7 @@
         <v>1</v>
       </c>
       <c r="Q190">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R190">
         <v>17</v>
@@ -11112,7 +11112,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11206,7 +11206,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11256,7 +11256,7 @@
         <v>1</v>
       </c>
       <c r="Q194">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R194">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R195">
         <v>11</v>
@@ -11359,7 +11359,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11409,7 +11409,7 @@
         <v>1</v>
       </c>
       <c r="Q197">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R197">
         <v>4</v>
@@ -11462,7 +11462,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11512,7 +11512,7 @@
         <v>1</v>
       </c>
       <c r="Q199">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R199">
         <v>8</v>
@@ -11565,7 +11565,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11615,7 +11615,7 @@
         <v>1</v>
       </c>
       <c r="Q201">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R201">
         <v>17</v>
@@ -11668,7 +11668,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11718,7 +11718,7 @@
         <v>1</v>
       </c>
       <c r="Q203">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R203">
         <v>9</v>
@@ -11771,7 +11771,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11821,7 +11821,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R205">
         <v>5</v>
@@ -11871,7 +11871,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11921,7 +11921,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11971,7 +11971,7 @@
         <v>1</v>
       </c>
       <c r="Q208">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R208">
         <v>9</v>
@@ -12021,7 +12021,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12071,7 +12071,7 @@
         <v>1</v>
       </c>
       <c r="Q210">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R210">
         <v>25</v>
@@ -12121,7 +12121,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12171,7 +12171,7 @@
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R212">
         <v>9</v>
@@ -12221,7 +12221,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12268,7 +12268,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12315,7 +12315,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12362,7 +12362,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12409,7 +12409,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12459,7 +12459,7 @@
         <v>1</v>
       </c>
       <c r="Q218">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R218">
         <v>11</v>
@@ -12512,7 +12512,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R219">
         <v>13</v>
@@ -12562,7 +12562,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12612,7 +12612,7 @@
         <v>1</v>
       </c>
       <c r="Q221">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R221">
         <v>11</v>
@@ -12659,7 +12659,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12709,7 +12709,7 @@
         <v>1</v>
       </c>
       <c r="Q223">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R223">
         <v>18</v>
@@ -12762,7 +12762,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12812,7 +12812,7 @@
         <v>1</v>
       </c>
       <c r="Q225">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R225">
         <v>16</v>
@@ -12862,7 +12862,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12909,7 +12909,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12959,7 +12959,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13009,7 +13009,7 @@
         <v>1</v>
       </c>
       <c r="Q229">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R229">
         <v>24</v>
@@ -13059,7 +13059,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13106,7 +13106,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13156,7 +13156,7 @@
         <v>1</v>
       </c>
       <c r="Q232">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R232">
         <v>26</v>
@@ -13206,7 +13206,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13256,7 +13256,7 @@
         <v>1</v>
       </c>
       <c r="Q234">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R234">
         <v>11</v>
@@ -13309,7 +13309,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13359,7 +13359,7 @@
         <v>1</v>
       </c>
       <c r="Q236">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R236">
         <v>9</v>
@@ -13409,7 +13409,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13456,7 +13456,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13506,7 +13506,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13556,7 +13556,7 @@
         <v>1</v>
       </c>
       <c r="Q240">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R240">
         <v>20</v>
@@ -13609,7 +13609,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13659,7 +13659,7 @@
         <v>1</v>
       </c>
       <c r="Q242">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R242">
         <v>14</v>
@@ -13709,7 +13709,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13756,7 +13756,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13803,7 +13803,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13850,7 +13850,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13897,7 +13897,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13944,7 +13944,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -13991,7 +13991,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14038,7 +14038,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14088,7 +14088,7 @@
         <v>1</v>
       </c>
       <c r="Q251">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R251">
         <v>4</v>
@@ -14141,7 +14141,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14191,7 +14191,7 @@
         <v>1</v>
       </c>
       <c r="Q253">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R253">
         <v>5</v>
@@ -14244,7 +14244,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14294,7 +14294,7 @@
         <v>1</v>
       </c>
       <c r="Q255">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R255">
         <v>11</v>
@@ -14347,7 +14347,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14394,7 +14394,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14444,7 +14444,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14494,7 +14494,7 @@
         <v>1</v>
       </c>
       <c r="Q259">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R259">
         <v>32</v>
@@ -14538,10 +14538,10 @@
         <v>1</v>
       </c>
       <c r="P260" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q260">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14588,7 +14588,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14635,7 +14635,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14682,7 +14682,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14729,7 +14729,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14776,7 +14776,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14823,7 +14823,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14864,10 +14864,10 @@
         <v>1</v>
       </c>
       <c r="P267" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q267">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14917,7 +14917,7 @@
         <v>1</v>
       </c>
       <c r="Q268">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R268">
         <v>15</v>
@@ -14970,7 +14970,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R269">
         <v>18</v>
@@ -15023,7 +15023,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15073,7 +15073,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R271">
         <v>8</v>
@@ -15126,7 +15126,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15176,7 +15176,7 @@
         <v>1</v>
       </c>
       <c r="Q273">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R273">
         <v>16</v>
@@ -15226,7 +15226,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15276,7 +15276,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R275">
         <v>9</v>
@@ -15326,7 +15326,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15373,7 +15373,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15423,7 +15423,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15473,7 +15473,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R279">
         <v>20</v>
@@ -15526,7 +15526,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R280">
         <v>16</v>
@@ -15579,7 +15579,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R281">
         <v>23</v>
@@ -15632,7 +15632,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15682,7 +15682,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R283">
         <v>11</v>
@@ -15732,7 +15732,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15782,7 +15782,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R285">
         <v>25</v>
@@ -15835,7 +15835,7 @@
         <v>1</v>
       </c>
       <c r="Q286">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R286">
         <v>28</v>
@@ -15888,7 +15888,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15938,7 +15938,7 @@
         <v>1</v>
       </c>
       <c r="Q288">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R288">
         <v>13</v>
@@ -15988,7 +15988,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16035,7 +16035,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16082,7 +16082,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16129,7 +16129,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16179,7 +16179,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R293">
         <v>13</v>
@@ -16232,7 +16232,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16282,7 +16282,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R295">
         <v>12</v>
@@ -16332,7 +16332,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16382,7 +16382,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R297">
         <v>21</v>
@@ -16435,7 +16435,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R298">
         <v>20</v>
@@ -16485,7 +16485,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16535,7 +16535,7 @@
         <v>1</v>
       </c>
       <c r="Q300">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R300">
         <v>17</v>
@@ -16588,7 +16588,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16635,7 +16635,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16685,7 +16685,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16735,7 +16735,7 @@
         <v>1</v>
       </c>
       <c r="Q304">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R304">
         <v>20</v>
@@ -16785,7 +16785,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16832,7 +16832,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16882,7 +16882,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R307">
         <v>21</v>
@@ -16932,7 +16932,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16982,7 +16982,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R309">
         <v>16</v>
@@ -17035,7 +17035,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R310">
         <v>16</v>
@@ -17085,7 +17085,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17132,7 +17132,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17179,7 +17179,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17226,7 +17226,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17276,7 +17276,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R315">
         <v>31</v>
@@ -17329,7 +17329,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17379,7 +17379,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R317">
         <v>17</v>
@@ -17429,7 +17429,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17476,7 +17476,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17523,7 +17523,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17570,7 +17570,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17617,7 +17617,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17664,7 +17664,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17711,7 +17711,7 @@
         <v>1</v>
       </c>
       <c r="Q324">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R324">
         <v>30</v>
@@ -17764,7 +17764,7 @@
         <v>1</v>
       </c>
       <c r="Q325">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R325">
         <v>11</v>
@@ -17814,7 +17814,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17864,7 +17864,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17914,7 +17914,7 @@
         <v>1</v>
       </c>
       <c r="Q328">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R328">
         <v>26</v>
@@ -17967,7 +17967,7 @@
         <v>1</v>
       </c>
       <c r="Q329">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R329">
         <v>22</v>
@@ -18020,7 +18020,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18064,7 +18064,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18114,7 +18114,7 @@
         <v>1</v>
       </c>
       <c r="Q332">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R332">
         <v>1</v>
@@ -18164,7 +18164,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18214,7 +18214,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R334">
         <v>0</v>
@@ -18264,7 +18264,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18314,7 +18314,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18361,7 +18361,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18408,7 +18408,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18455,7 +18455,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18505,7 +18505,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R340">
         <v>23</v>
@@ -18558,7 +18558,7 @@
         <v>1</v>
       </c>
       <c r="Q341">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R341">
         <v>20</v>
@@ -18608,7 +18608,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18655,7 +18655,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18702,7 +18702,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18752,7 +18752,7 @@
         <v>1</v>
       </c>
       <c r="Q345">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R345">
         <v>0</v>
@@ -18802,7 +18802,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18849,7 +18849,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18899,7 +18899,7 @@
         <v>1</v>
       </c>
       <c r="Q348">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R348">
         <v>25</v>
@@ -18949,7 +18949,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18999,7 +18999,7 @@
         <v>1</v>
       </c>
       <c r="Q350">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R350">
         <v>9</v>
@@ -19052,7 +19052,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19099,7 +19099,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19149,7 +19149,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19199,7 +19199,7 @@
         <v>1</v>
       </c>
       <c r="Q354">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R354">
         <v>9</v>
@@ -19249,7 +19249,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19296,7 +19296,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19343,7 +19343,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19390,7 +19390,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19437,7 +19437,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19484,7 +19484,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19534,7 +19534,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R361">
         <v>18</v>
@@ -19578,10 +19578,10 @@
         <v>1</v>
       </c>
       <c r="P362" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q362">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19628,7 +19628,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19675,7 +19675,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19716,10 +19716,10 @@
         <v>1</v>
       </c>
       <c r="P365" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q365">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19766,7 +19766,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19816,7 +19816,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19866,7 +19866,7 @@
         <v>1</v>
       </c>
       <c r="Q368">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R368">
         <v>14</v>
@@ -19919,7 +19919,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19966,7 +19966,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -20013,7 +20013,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20060,7 +20060,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20110,7 +20110,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R373">
         <v>8</v>
@@ -20163,7 +20163,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20213,7 +20213,7 @@
         <v>1</v>
       </c>
       <c r="Q375">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R375">
         <v>12</v>
@@ -20263,7 +20263,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20313,7 +20313,7 @@
         <v>1</v>
       </c>
       <c r="Q377">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R377">
         <v>21</v>
@@ -20363,7 +20363,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20413,7 +20413,7 @@
         <v>1</v>
       </c>
       <c r="Q379">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R379">
         <v>18</v>
@@ -20463,7 +20463,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20513,7 +20513,7 @@
         <v>1</v>
       </c>
       <c r="Q381">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R381">
         <v>16</v>
@@ -20563,7 +20563,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20610,7 +20610,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20657,7 +20657,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20704,7 +20704,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20751,7 +20751,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20798,7 +20798,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20848,7 +20848,7 @@
         <v>1</v>
       </c>
       <c r="Q388">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R388">
         <v>0</v>
@@ -20898,7 +20898,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20945,7 +20945,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20995,7 +20995,7 @@
         <v>1</v>
       </c>
       <c r="Q391">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R391">
         <v>17</v>
@@ -21045,7 +21045,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21092,7 +21092,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21142,7 +21142,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R394">
         <v>29</v>
@@ -21192,7 +21192,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21239,7 +21239,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21286,7 +21286,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21336,7 +21336,7 @@
         <v>1</v>
       </c>
       <c r="Q398">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R398">
         <v>29</v>
@@ -21386,7 +21386,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21436,7 +21436,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R400">
         <v>15</v>
@@ -21486,7 +21486,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21533,7 +21533,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21580,7 +21580,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21627,7 +21627,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21677,7 +21677,7 @@
         <v>1</v>
       </c>
       <c r="Q405">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R405">
         <v>19</v>
@@ -21730,7 +21730,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21780,7 +21780,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R407">
         <v>3</v>
@@ -21830,7 +21830,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21877,7 +21877,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21927,7 +21927,7 @@
         <v>1</v>
       </c>
       <c r="Q410">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R410">
         <v>0</v>
@@ -21977,7 +21977,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -22027,7 +22027,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22074,7 +22074,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22124,7 +22124,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22174,7 +22174,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R415">
         <v>29</v>
@@ -22227,7 +22227,7 @@
         <v>1</v>
       </c>
       <c r="Q416">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R416">
         <v>2</v>
@@ -22277,7 +22277,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22324,7 +22324,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22371,7 +22371,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22421,7 +22421,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R420">
         <v>12</v>
@@ -22471,7 +22471,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22518,7 +22518,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22568,7 +22568,7 @@
         <v>1</v>
       </c>
       <c r="Q423">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R423">
         <v>0</v>
@@ -22615,7 +22615,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22665,7 +22665,7 @@
         <v>1</v>
       </c>
       <c r="Q425">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R425">
         <v>18</v>
@@ -22718,7 +22718,7 @@
         <v>1</v>
       </c>
       <c r="Q426">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R426">
         <v>14</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22815,7 +22815,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22862,7 +22862,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22909,7 +22909,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22959,7 +22959,7 @@
         <v>1</v>
       </c>
       <c r="Q431">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R431">
         <v>18</v>
@@ -23012,7 +23012,7 @@
         <v>1</v>
       </c>
       <c r="Q432">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R432">
         <v>20</v>
@@ -23062,7 +23062,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23109,7 +23109,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23156,7 +23156,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23203,7 +23203,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23250,7 +23250,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23297,7 +23297,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23347,7 +23347,7 @@
         <v>1</v>
       </c>
       <c r="Q439">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R439">
         <v>17</v>
@@ -23397,7 +23397,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23444,7 +23444,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23491,7 +23491,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23538,7 +23538,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23588,7 +23588,7 @@
         <v>1</v>
       </c>
       <c r="Q444">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R444">
         <v>25</v>
@@ -23638,7 +23638,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23688,7 +23688,7 @@
         <v>1</v>
       </c>
       <c r="Q446">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R446">
         <v>5</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23788,7 +23788,7 @@
         <v>1</v>
       </c>
       <c r="Q448">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R448">
         <v>5</v>
@@ -23841,7 +23841,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23888,7 +23888,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23982,7 +23982,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24076,7 +24076,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24126,7 +24126,7 @@
         <v>1</v>
       </c>
       <c r="Q455">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R455">
         <v>23</v>
@@ -24179,7 +24179,7 @@
         <v>1</v>
       </c>
       <c r="Q456">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R456">
         <v>14</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24276,7 +24276,7 @@
         <v>1</v>
       </c>
       <c r="Q458">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R458">
         <v>12</v>
@@ -24329,7 +24329,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24379,7 +24379,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R460">
         <v>15</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24482,7 +24482,7 @@
         <v>1</v>
       </c>
       <c r="Q462">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R462">
         <v>5</v>
@@ -24532,7 +24532,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24582,7 +24582,7 @@
         <v>1</v>
       </c>
       <c r="Q464">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R464">
         <v>23</v>
@@ -24635,7 +24635,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24685,7 +24685,7 @@
         <v>1</v>
       </c>
       <c r="Q466">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R466">
         <v>15</v>
@@ -24735,7 +24735,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24785,7 +24785,7 @@
         <v>1</v>
       </c>
       <c r="Q468">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R468">
         <v>5</v>
@@ -24835,7 +24835,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24885,7 +24885,7 @@
         <v>1</v>
       </c>
       <c r="Q470">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R470">
         <v>18</v>
@@ -24938,7 +24938,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24988,7 +24988,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R472">
         <v>16</v>
@@ -25038,7 +25038,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25085,7 +25085,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25179,7 +25179,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25226,7 +25226,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25273,7 +25273,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25320,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25367,7 +25367,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25414,7 +25414,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25461,7 +25461,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25508,7 +25508,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25605,7 +25605,7 @@
         <v>1</v>
       </c>
       <c r="Q485">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R485">
         <v>7</v>
@@ -25658,7 +25658,7 @@
         <v>1</v>
       </c>
       <c r="Q486">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R486">
         <v>11</v>
@@ -25711,7 +25711,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25761,7 +25761,7 @@
         <v>1</v>
       </c>
       <c r="Q488">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R488">
         <v>10</v>
@@ -25811,7 +25811,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25861,7 +25861,7 @@
         <v>1</v>
       </c>
       <c r="Q490">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R490">
         <v>9</v>
@@ -25911,7 +25911,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25961,7 +25961,7 @@
         <v>1</v>
       </c>
       <c r="Q492">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R492">
         <v>18</v>
@@ -26017,7 +26017,7 @@
         <v>1</v>
       </c>
       <c r="Q493">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R493">
         <v>3</v>
@@ -26061,10 +26061,10 @@
         <v>1</v>
       </c>
       <c r="P494" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q494">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26105,7 +26105,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
